--- a/backend/data/init_similarity.xlsx
+++ b/backend/data/init_similarity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luojiale\Desktop\Codes\Hackathons\UndercoverDucks\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CAEAC8-EFCC-4DF3-BC06-3034BFDA7C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125C5D5-D7C4-4998-B39D-73F35033FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -311,7 +311,7 @@
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -359,431 +359,431 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.3499999999999997E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7.9800000000000002E-5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2.9100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D2">
+        <v>6.86E-5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G2">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="J2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.72E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G3" s="2">
-        <v>9.4299999999999991E-3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.72E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G3">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="H3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="I3">
+        <v>6.3699999999999998E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.86E-5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6799999999999999E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.7800000000000003E-6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.7399999999999998E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1.06E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.72E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3.58E-6</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="I5">
+        <v>8.7700000000000004E-5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.0799999999999999E-4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7.8699999999999992E-6</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.65E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.111</v>
+      </c>
+      <c r="C6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>6.7800000000000003E-6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="I6">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="J6">
+        <v>0.152</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.1800000000000001E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.3800000000000002E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.2700000000000001E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.0099999999999997E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1.52E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>9.4299999999999991E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6.9900000000000005E-5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>6.7100000000000005E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="D8">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F8">
+        <v>7.8699999999999992E-6</v>
+      </c>
+      <c r="G8">
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.3200000000000001E-5</v>
+      </c>
+      <c r="L8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.3699999999999998E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8.7700000000000004E-5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5.7800000000000004E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2.0100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7.9800000000000002E-5</v>
+      </c>
+      <c r="C9">
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E9">
+        <v>3.58E-6</v>
+      </c>
+      <c r="F9">
+        <v>2.65E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.89</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.95</v>
+      </c>
+      <c r="C10">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>6.9900000000000005E-5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.38E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="B12">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.06E-3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>6.7100000000000005E-5</v>
+      </c>
+      <c r="I12">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
